--- a/dice_cov_substances.xlsx
+++ b/dice_cov_substances.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon Tannenbaum\Documents\Texas A&amp;M\Aero 614 - Human Performance in Aerospace Environments\DICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leont\Documents\Human Performance in Aerospace Environments\DICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD6C57C-B075-4732-9447-A46110C6C8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78AA4EB-D850-4685-9632-6A44F407FA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="746" xr2:uid="{AF72E69E-C65A-4663-A5A0-E2F194B06B16}"/>
+    <workbookView xWindow="9240" yWindow="4200" windowWidth="28800" windowHeight="15460" tabRatio="746" activeTab="6" xr2:uid="{AF72E69E-C65A-4663-A5A0-E2F194B06B16}"/>
   </bookViews>
   <sheets>
     <sheet name="beer_7days_mm" sheetId="1" r:id="rId1"/>
@@ -223,6 +223,7920 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>How many glasses of liquor/whiskey/gin have you drunk per day within the last 7 days</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>liquor_7days_mm!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean - F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>liquor_7days_mm!$B$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>liquor_7days_mm!$B$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.4615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C2E-4D5F-85E2-D853440C9201}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>liquor_7days_mm!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean - M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>liquor_7days_mm!$B$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>liquor_7days_mm!$B$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C2E-4D5F-85E2-D853440C9201}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1853846079"/>
+        <c:axId val="1853846495"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1853846079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1853846495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1853846495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1853846079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>How many glasses of liquor/whiskey/gin have you drunk per day within the last 7 days</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>liquor_7days_mm!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean - T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>liquor_7days_mm!$B$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>liquor_7days_mm!$B$19:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E787-46A1-B7C2-6DD27C9C8AB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>liquor_7days_mm!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean - A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>liquor_7days_mm!$B$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>liquor_7days_mm!$B$20:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E787-46A1-B7C2-6DD27C9C8AB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1861414191"/>
+        <c:axId val="1861401711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1861414191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1861401711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1861401711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1861414191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>How many cups of coffee have you drunk per day within the last 7 days?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>coffee_7days_mm!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean - F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>coffee_7days_mm!$B$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>coffee_7days_mm!$B$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2857142857142858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-497E-4A8E-BB0F-8100CE5195C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>coffee_7days_mm!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean - M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>coffee_7days_mm!$B$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>coffee_7days_mm!$B$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.4666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-497E-4A8E-BB0F-8100CE5195C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1586095855"/>
+        <c:axId val="1586100847"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1586095855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586100847"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1586100847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586095855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>How many cups of coffee have you drunk per day within the last 7 days?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7330927384076991E-2"/>
+          <c:y val="0.25083333333333335"/>
+          <c:w val="0.89655796150481193"/>
+          <c:h val="0.5358639545056868"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>coffee_7days_mm!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean - T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>coffee_7days_mm!$B$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>coffee_7days_mm!$B$19:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8571428571428572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6AC9-47C6-8698-CA714547F3E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>coffee_7days_mm!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean - A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>coffee_7days_mm!$B$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>coffee_7days_mm!$B$20:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6AC9-47C6-8698-CA714547F3E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1586095855"/>
+        <c:axId val="1586100847"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1586095855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586100847"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1586100847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586095855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>How many cups of tea have you drunk per day within the last 7 days?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tea_7days_mm!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean - T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>tea_7days_mm!$B$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tea_7days_mm!$B$19:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.3125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1666666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8283-456C-AB12-8935ACD184F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tea_7days_mm!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean - A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>tea_7days_mm!$B$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tea_7days_mm!$B$20:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8283-456C-AB12-8935ACD184F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1756775391"/>
+        <c:axId val="1756774143"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1756775391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756774143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1756774143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756775391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>How many cups of tea have you drunk per day within the last 7 days?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tea_7days_mm!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean - F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>tea_7days_mm!$B$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tea_7days_mm!$B$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4285714285714286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03C0-45D0-BAF8-CDAB1F301532}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tea_7days_mm!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean - M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>tea_7days_mm!$B$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tea_7days_mm!$B$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03C0-45D0-BAF8-CDAB1F301532}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1853851903"/>
+        <c:axId val="1853850239"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1853851903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1853850239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1853850239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1853851903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>How many cans of stimulant/caffeinated beverages (soft drinks) have you drunk per day within the last 7 days?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bang_7days_mm!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean - F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>bang_7days_mm!$B$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bang_7days_mm!$B$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.2666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AB4-45C8-8506-1B5DF3534157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bang_7days_mm!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean - M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>bang_7days_mm!$B$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bang_7days_mm!$B$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3AB4-45C8-8506-1B5DF3534157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1586096271"/>
+        <c:axId val="1586103343"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1586096271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586103343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1586103343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586096271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>How many cans of stimulant/caffeinated beverages (soft drinks) have you drunk per day within the last 7 days?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11905555555555555"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bang_7days_mm!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean - T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>bang_7days_mm!$B$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bang_7days_mm!$B$19:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0811-434F-8016-EA8178580942}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bang_7days_mm!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean - A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>bang_7days_mm!$B$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bang_7days_mm!$B$20:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0811-434F-8016-EA8178580942}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1861309311"/>
+        <c:axId val="1861295167"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1861309311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1861295167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1861295167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1861309311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>187325</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A293CB85-B23C-434E-9389-E28DDF26F780}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B726605-E092-4A5C-B991-B8F1491C7F56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92EEFFE-3F1C-44DA-AC43-C8DA7BE2438F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A9DEDD-1D7A-4F81-8FCA-E193A03F4252}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226F7963-CDD8-430A-A5AF-2CA885C75216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2182A193-4719-4903-B2EE-9DCFDB0CB893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8987D491-785B-4A7C-893F-42F4445FDC84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67010E70-1A96-415A-AA63-735C9FC0226D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,18 +8438,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D110AD6B-47C3-4700-BDCD-040F75C2EC1F}">
   <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -573,7 +8487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -611,7 +8525,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -649,7 +8563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -687,7 +8601,7 @@
         <v>0.28867513459481292</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -725,7 +8639,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0</v>
       </c>
@@ -760,12 +8674,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0</v>
       </c>
@@ -800,7 +8714,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -838,7 +8752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -876,7 +8790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -914,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -952,12 +8866,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0</v>
       </c>
@@ -992,7 +8906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1030,7 +8944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1068,7 +8982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1106,7 +9020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1157,14 +9071,14 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +9116,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1240,7 +9154,7 @@
         <v>1.0690449676496976</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1278,7 +9192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1316,7 +9230,7 @@
         <v>0.21821789023599242</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1354,7 +9268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0</v>
       </c>
@@ -1389,12 +9303,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0</v>
       </c>
@@ -1429,7 +9343,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1467,7 +9381,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1505,7 +9419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1543,7 +9457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1581,12 +9495,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0</v>
       </c>
@@ -1621,7 +9535,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1659,7 +9573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1697,7 +9611,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1735,7 +9649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1783,17 +9697,17 @@
   <dimension ref="A2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1831,7 +9745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1869,7 +9783,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1907,7 +9821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1945,7 +9859,7 @@
         <v>0.28867513459481292</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1983,7 +9897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0</v>
       </c>
@@ -2018,12 +9932,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0</v>
       </c>
@@ -2058,7 +9972,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2096,7 +10010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2134,7 +10048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2172,7 +10086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2210,12 +10124,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0</v>
       </c>
@@ -2250,7 +10164,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2288,7 +10202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2326,7 +10240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2364,7 +10278,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2404,6 +10318,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2415,14 +10330,14 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0</v>
       </c>
@@ -2457,7 +10372,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2495,7 +10410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2533,7 +10448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2571,7 +10486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2609,12 +10524,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0</v>
       </c>
@@ -2649,7 +10564,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2687,7 +10602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2725,7 +10640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2763,7 +10678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2801,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2839,7 +10754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2877,7 +10792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2915,12 +10830,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>0</v>
       </c>
@@ -2955,7 +10870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2993,7 +10908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -3031,7 +10946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3069,7 +10984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3107,7 +11022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3145,7 +11060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3183,7 +11098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -3231,17 +11146,17 @@
   <dimension ref="A2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L3"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3279,7 +11194,7 @@
         <v>1.6363636363636365</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3317,7 +11232,7 @@
         <v>0.9244162777371755</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3355,7 +11270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3393,7 +11308,7 @@
         <v>0.18869568253158475</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3431,7 +11346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0</v>
       </c>
@@ -3466,12 +11381,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0</v>
       </c>
@@ -3506,7 +11421,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3544,7 +11459,7 @@
         <v>1.2857142857142858</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3582,7 +11497,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3620,7 +11535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3658,12 +11573,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0</v>
       </c>
@@ -3698,7 +11613,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3736,7 +11651,7 @@
         <v>1.8571428571428572</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3774,7 +11689,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -3812,7 +11727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -3852,6 +11767,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3860,17 +11776,17 @@
   <dimension ref="A2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3908,7 +11824,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3946,7 +11862,7 @@
         <v>0.70710678118654757</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3984,7 +11900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4022,7 +11938,7 @@
         <v>0.14433756729740646</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4060,7 +11976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0</v>
       </c>
@@ -4095,12 +12011,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0</v>
       </c>
@@ -4135,7 +12051,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -4173,7 +12089,7 @@
         <v>1.4285714285714286</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -4211,7 +12127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -4249,7 +12165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -4287,12 +12203,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0</v>
       </c>
@@ -4327,7 +12243,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4365,7 +12281,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4403,7 +12319,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -4441,7 +12357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4481,6 +12397,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4488,18 +12405,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A51FE9-6BAD-4F43-AA28-D160ABEAE27A}">
   <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4537,7 +12454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4575,7 +12492,7 @@
         <v>1.2247448713915889</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4613,7 +12530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4651,7 +12568,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4689,7 +12606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0</v>
       </c>
@@ -4724,12 +12641,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0</v>
       </c>
@@ -4764,7 +12681,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -4802,7 +12719,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -4840,7 +12757,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -4878,7 +12795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -4916,12 +12833,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0</v>
       </c>
@@ -4956,7 +12873,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4994,7 +12911,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -5032,7 +12949,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -5070,7 +12987,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -5110,6 +13027,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5121,14 +13039,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0</v>
       </c>
@@ -5163,7 +13081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -5201,7 +13119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -5239,7 +13157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -5277,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -5315,12 +13233,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0</v>
       </c>
@@ -5355,7 +13273,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -5393,7 +13311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -5431,7 +13349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -5469,7 +13387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5507,7 +13425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5545,7 +13463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -5583,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5621,12 +13539,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>0</v>
       </c>
@@ -5661,7 +13579,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -5699,7 +13617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -5737,7 +13655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -5775,7 +13693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -5813,7 +13731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -5851,7 +13769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5889,7 +13807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2</v>
       </c>

--- a/dice_cov_substances.xlsx
+++ b/dice_cov_substances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leont\Documents\Human Performance in Aerospace Environments\DICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78AA4EB-D850-4685-9632-6A44F407FA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4992B71-047D-4F19-A24B-CC5AD3C8B232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="4200" windowWidth="28800" windowHeight="15460" tabRatio="746" activeTab="6" xr2:uid="{AF72E69E-C65A-4663-A5A0-E2F194B06B16}"/>
+    <workbookView xWindow="3820" yWindow="-240" windowWidth="28800" windowHeight="15460" tabRatio="775" firstSheet="3" activeTab="6" xr2:uid="{AF72E69E-C65A-4663-A5A0-E2F194B06B16}"/>
   </bookViews>
   <sheets>
     <sheet name="beer_7days_mm" sheetId="1" r:id="rId1"/>
@@ -214,6 +214,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC00CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -259,9 +264,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>How many glasses of liquor/whiskey/gin have you drunk per day within the last 7 days</a:t>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Glasses of liquor in the last 7 days</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -317,7 +327,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="CC00CC"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -453,7 +463,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -462,6 +472,18 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AC17-410C-A65A-9E02A2105B93}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -613,7 +635,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -639,6 +661,7 @@
         <c:axId val="1853846495"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -656,6 +679,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
+                  <a:t>Glasses of liquor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -672,7 +750,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -699,37 +777,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -794,13 +841,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -808,9 +869,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>How many glasses of liquor/whiskey/gin have you drunk per day within the last 7 days</a:t>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Glasses of liquor in the last 7 days</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -826,13 +892,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -866,7 +946,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1002,7 +1082,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1162,7 +1242,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1188,6 +1268,7 @@
         <c:axId val="1861401711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1205,6 +1286,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
+                  <a:t>Glasses of liquor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1221,7 +1357,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1248,37 +1384,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1357,9 +1462,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>How many cups of coffee have you drunk per day within the last 7 days?</a:t>
+              <a:rPr lang="en-US" sz="2400" b="1"/>
+              <a:t>Cups of coffee</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
+              <a:t> in the last 7 days</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1415,7 +1525,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="CC00CC"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1551,7 +1661,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1711,7 +1821,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1754,6 +1864,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
+                  <a:t>Cups</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
+                  <a:t> of Coffee</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1770,7 +1940,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1797,37 +1967,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1906,8 +2045,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>How many cups of coffee have you drunk per day within the last 7 days?</a:t>
+              <a:rPr lang="en-US" sz="2400" b="1"/>
+              <a:t>Cups of Coffee in the last 7 days</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1920,25 +2059,35 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.7330927384076991E-2"/>
-          <c:y val="0.25083333333333335"/>
-          <c:w val="0.89655796150481193"/>
-          <c:h val="0.5358639545056868"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -1951,6 +2100,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1959,6 +2117,19 @@
             <c:errBarType val="both"/>
             <c:errValType val="stdErr"/>
             <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -2047,12 +2218,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6AC9-47C6-8698-CA714547F3E1}"/>
+              <c16:uniqueId val="{00000000-C60E-4AB6-AA53-309F8011D2D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -2065,6 +2236,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2073,6 +2253,19 @@
             <c:errBarType val="both"/>
             <c:errValType val="stdErr"/>
             <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -2161,7 +2354,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-6AC9-47C6-8698-CA714547F3E1}"/>
+              <c16:uniqueId val="{00000001-C60E-4AB6-AA53-309F8011D2D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2174,11 +2367,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1586095855"/>
-        <c:axId val="1586100847"/>
+        <c:axId val="1998574272"/>
+        <c:axId val="1998579680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1586095855"/>
+        <c:axId val="1998574272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,7 +2399,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2221,7 +2414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1586100847"/>
+        <c:crossAx val="1998579680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2229,7 +2422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1586100847"/>
+        <c:axId val="1998579680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2249,6 +2442,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
+                  <a:t>Cups of Coffee</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2265,7 +2513,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2280,14 +2528,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1586095855"/>
+        <c:crossAx val="1998574272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2295,32 +2539,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2373,9 +2618,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>How many cups of tea have you drunk per day within the last 7 days?</a:t>
+              <a:rPr lang="en-US" sz="2400" b="1"/>
+              <a:t>Cups</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
+              <a:t> of tea in the last 7 days</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2431,7 +2681,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2567,7 +2817,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2727,7 +2977,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2770,6 +3020,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
+                  <a:t>Cups of tea</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2786,7 +3091,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2813,37 +3118,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3471,9 +3745,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>How many cans of stimulant/caffeinated beverages (soft drinks) have you drunk per day within the last 7 days?</a:t>
+              <a:rPr lang="en-US" sz="2400" b="1"/>
+              <a:t>Cans of stimulated</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
+              <a:t> beverages in the last 7 days</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3529,7 +3808,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="CC00CC"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3665,7 +3944,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3825,7 +4104,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3868,6 +4147,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
+                  <a:t>number of cans</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3884,7 +4218,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3911,37 +4245,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4735,6 +5038,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7831,20 +8174,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7871,16 +8730,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>263524</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7912,16 +8771,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>587374</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596899</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7948,23 +8807,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>498474</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>473075</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A9DEDD-1D7A-4F81-8FCA-E193A03F4252}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5E40DA-59C1-4E52-BDF7-EC5B2A87DFE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7990,15 +8849,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>517525</xdr:colOff>
+      <xdr:colOff>517524</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>212725</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8066,16 +8925,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>511174</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>463549</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8102,16 +8961,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9696,8 +10555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797896C0-B0AC-421F-A26A-C0E5C2C246BD}">
   <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11146,7 +12005,7 @@
   <dimension ref="A2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11775,8 +12634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC51A356-1561-4F40-9FF1-E9838492BBD3}">
   <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12405,8 +13264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A51FE9-6BAD-4F43-AA28-D160ABEAE27A}">
   <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U53" sqref="U40:Y53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
